--- a/blade-service/blade-anbiao/src/main/resources/templates/SafeInvestment.xlsx
+++ b/blade-service/blade-anbiao/src/main/resources/templates/SafeInvestment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>安全投入台账</t>
   </si>
@@ -85,19 +85,22 @@
     <t>使用时间</t>
   </si>
   <si>
-    <t>{asidEntryName}</t>
-  </si>
-  <si>
-    <t>{asidHandledByName}</t>
-  </si>
-  <si>
-    <t>{asidInvestmentScope}</t>
-  </si>
-  <si>
-    <t>{asidInvestmentDare}</t>
-  </si>
-  <si>
-    <t>{asidAmountUsed}</t>
+    <t>{.serialNumber}</t>
+  </si>
+  <si>
+    <t>{.asidEntryName}</t>
+  </si>
+  <si>
+    <t>{.asidHandledByName}</t>
+  </si>
+  <si>
+    <t>{.asidInvestmentScope}</t>
+  </si>
+  <si>
+    <t>{.asidInvestmentDare}</t>
+  </si>
+  <si>
+    <t>{.asidAmountUsed}</t>
   </si>
 </sst>
 </file>
@@ -1157,21 +1160,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5092592592593" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.0185185185185" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5277777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.4444444444444" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -1315,42 +1318,24 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
       <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
